--- a/data/trans_dic/P19C09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,58%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,91; 5,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>2,32; 7,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>1,21; 6,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>2,4; 9,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>1,49; 5,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>2,89; 6,63</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>1,73; 5,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,49; 2,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>1,32; 4,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,99; 5,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>1,02; 4,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,52; 2,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>2,22; 4,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,0; 3,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,14; 3,42</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,75; 4,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,34; 3,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,27; 2,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>2,11; 6,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>1,3; 5,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,3; 3,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,81; 4,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,31; 3,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,47; 2,59</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,03%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,6; 6,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,43; 4,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>4,52; 10,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>1,6; 5,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,69; 7,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>3,09; 7,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,01; 5,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,95; 5,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>4,46; 8,22</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>1,48; 7,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>0,64; 5,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>1,5; 8,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>1,04; 6,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>0,58; 6,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>2,02; 8,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>1,55; 5,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,64; 4,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>2,46; 7,48</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,55; 4,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>0,4; 3,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,0; 2,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>0,96; 5,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>1,54; 6,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,76; 5,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>1,1; 4,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>1,34; 4,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,61; 3,05</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,18; 4,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,23; 4,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>1,03; 4,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,83; 6,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,23; 3,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,63; 4,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,41; 4,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,54; 3,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,75; 3,94</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,17; 3,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,33; 2,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,1; 3,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,88; 3,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,61; 2,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,66; 2,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,23; 2,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,57; 1,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,13; 2,78</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,03; 3,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,3; 2,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,26; 3,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,54; 3,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,25; 3,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,13; 3,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,44; 3,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,88; 2,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,36; 3,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 5,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,44; 11,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 7,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,63</t>
+          <t>1,57; 6,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,55</t>
+          <t>2,15; 6,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,51</t>
+          <t>2,32; 5,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P19C09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,19</t>
+          <t>0,84; 5,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,53</t>
+          <t>0,37; 5,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 7,98</t>
+          <t>2,39; 7,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,6</t>
+          <t>1,17; 6,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,92</t>
+          <t>4,61; 11,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 9,17</t>
+          <t>2,27; 8,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,06</t>
+          <t>1,58; 4,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,39</t>
+          <t>2,93; 7,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,63</t>
+          <t>2,89; 6,72</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 5,62</t>
+          <t>1,71; 5,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,58</t>
+          <t>0,48; 2,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,83</t>
+          <t>1,34; 4,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,41</t>
+          <t>1,96; 5,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,44</t>
+          <t>1,01; 4,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,98</t>
+          <t>0,5; 3,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,71</t>
+          <t>2,32; 4,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,1</t>
+          <t>0,9; 2,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,42</t>
+          <t>1,11; 3,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,33</t>
+          <t>0,77; 4,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,45</t>
+          <t>0,35; 3,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,8</t>
+          <t>0,27; 3,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,82</t>
+          <t>2,06; 6,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,19</t>
+          <t>1,55; 5,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,9</t>
+          <t>0,3; 4,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,68</t>
+          <t>1,8; 4,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,65</t>
+          <t>1,29; 3,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,59</t>
+          <t>0,43; 2,43</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,65</t>
+          <t>1,68; 7,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,18</t>
+          <t>1,61; 6,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 10,06</t>
+          <t>4,5; 10,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,63</t>
+          <t>1,63; 5,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,72</t>
+          <t>2,24; 6,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,96</t>
+          <t>3,14; 7,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,12</t>
+          <t>2,03; 5,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,6</t>
+          <t>2,27; 5,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,22</t>
+          <t>4,42; 8,01</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 7,95</t>
+          <t>1,49; 7,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,28</t>
+          <t>0,64; 5,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 8,68</t>
+          <t>1,45; 8,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,16</t>
+          <t>1,08; 6,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,56</t>
+          <t>0,59; 6,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,81</t>
+          <t>2,01; 8,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,53</t>
+          <t>1,75; 5,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,33</t>
+          <t>0,93; 4,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,48</t>
+          <t>2,43; 7,26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,96</t>
+          <t>0,55; 5,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,88</t>
+          <t>0,39; 3,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,95</t>
+          <t>0,0; 3,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,72</t>
+          <t>0,93; 5,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 6,76</t>
+          <t>1,48; 6,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 5,1</t>
+          <t>0,78; 4,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,53</t>
+          <t>1,09; 4,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,37</t>
+          <t>1,34; 4,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,05</t>
+          <t>0,62; 3,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,16</t>
+          <t>1,26; 4,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,0</t>
+          <t>1,35; 4,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,38</t>
+          <t>0,99; 4,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,48</t>
+          <t>2,76; 6,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,71</t>
+          <t>1,23; 3,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,97</t>
+          <t>1,65; 4,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,74</t>
+          <t>2,41; 4,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,3</t>
+          <t>1,48; 3,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,94</t>
+          <t>1,7; 3,84</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,62</t>
+          <t>1,23; 3,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,13</t>
+          <t>0,33; 2,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,32</t>
+          <t>1,08; 3,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,18</t>
+          <t>0,78; 3,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,44</t>
+          <t>0,53; 2,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,79</t>
+          <t>0,77; 2,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,86</t>
+          <t>1,16; 2,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,93</t>
+          <t>0,56; 1,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,78</t>
+          <t>1,19; 2,77</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,34</t>
+          <t>2,03; 3,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,36</t>
+          <t>1,26; 2,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,53</t>
+          <t>2,3; 3,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,84</t>
+          <t>2,54; 3,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,48</t>
+          <t>2,24; 3,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,42</t>
+          <t>2,07; 3,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,38</t>
+          <t>2,43; 3,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,72</t>
+          <t>1,93; 2,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,36; 3,27</t>
+          <t>2,33; 3,2</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por otros motivos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4029</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11166</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6538</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19235</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11367</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11008</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23264</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22533</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1607; 9776</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>933; 12481</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5849; 19117</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2345; 13572</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11494; 28624</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5604; 20759</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6203; 19346</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14609; 35491</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14184; 33030</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13586</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4992</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9656</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14937</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9229</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5356</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28523</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14221</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15012</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6992; 23834</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1880; 10895</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4864; 17806</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8628; 24043</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4151; 18904</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1981; 12405</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19693; 41320</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7232; 23704</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8392; 24926</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4596</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2940</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11051</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9617</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3980</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15648</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13642</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6920</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1821; 10016</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1014; 10963</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>787; 9142</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5958; 18958</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5086; 17185</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>927; 12450</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9466; 24376</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8031; 22925</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2584; 14549</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9466</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10092</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22481</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9615</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13313</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18482</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19081</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23405</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>40962</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4495; 18744</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4935; 19043</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14860; 33867</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4882; 16598</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7620; 23176</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>10964; 27106</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11522; 29098</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14693; 35877</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>30017; 54396</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5952</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4766</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4848</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3693</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6688</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10800</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6790</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11454</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2539; 12534</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1012; 8298</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1730; 10315</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1877; 11464</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>982; 10918</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2918; 12853</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6026; 19052</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2999; 14757</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6442; 19219</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4106</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3906</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5319</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8845</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9425</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>12752</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7292</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1033; 9689</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>975; 9837</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7233</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1907; 11146</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3924; 17033</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1921; 12055</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4293; 16525</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6894; 21540</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2985; 14404</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>10804</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>13496</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9894</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>23633</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>13857</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>14639</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>34437</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>27353</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>24533</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5845; 19605</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7746; 23143</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4359; 19559</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>14907; 34536</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>7668; 22896</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>8039; 24185</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>24193; 47937</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>17769; 38629</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>15766; 35659</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>11309</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>13200</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>10092</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>8371</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>10555</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>21402</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>13519</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>23755</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>6400; 19158</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1991; 13410</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>6925; 21959</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>4572; 17986</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3636; 15605</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>5308; 20321</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>12922; 32037</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>7284; 22811</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>15823; 36869</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>64290</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>48784</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>76062</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>86034</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>86161</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>76400</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>150323</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>134945</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>152462</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>49747; 80395</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>35840; 65963</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>61151; 96900</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>69534; 106829</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>68765; 106697</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>59388; 95811</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>126092; 178096</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>114248; 163248</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>128980; 177268</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>